--- a/Training.xlsx
+++ b/Training.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Teller App\fis2vcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuand\fis2vcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>JPA and @Entity</t>
   </si>
@@ -325,11 +325,15 @@
       <t>Nghiên cứu xong sử dụng Git</t>
     </r>
   </si>
+  <si>
+    <t>Tiếp tục task Agular
+Nghiên cứu xong sử dụng Git</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -744,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,8 +832,8 @@
       <c r="H2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
-        <v>54</v>
+      <c r="I2" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="J2" t="s">
         <v>54</v>
